--- a/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/Goc_Module_Demand_Week.xlsx
+++ b/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/Goc_Module_Demand_Week.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wisol_Git\OPERATION_MNS_SYSTEM\OPERATION_MNS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E87273-13D1-424D-BD97-B39E81DA1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8A190-BB75-4BE9-AEDA-C69B8E98B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4599959-3F17-484D-AEFB-9B05FD76528E}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C4599959-3F17-484D-AEFB-9B05FD76528E}"/>
   </bookViews>
   <sheets>
-    <sheet name="SMT Demand" sheetId="1" r:id="rId1"/>
-    <sheet name="LFEM Demand" sheetId="2" r:id="rId2"/>
+    <sheet name="SMT Hoặc WLP1 Demand" sheetId="1" r:id="rId1"/>
+    <sheet name="LFEM Hoặc WLP2 Demand" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Model/Week</t>
   </si>
@@ -48,23 +48,14 @@
     <t>W9A</t>
   </si>
   <si>
-    <t>W9B</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>SFML6K0V00B</t>
+    <t>Làm kế hoạch đầy đủ tuần nào thì import tuần đó, xóa tuần không cần thiết đi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +63,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +83,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,13 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69AB8A0-56D0-40E4-9278-232D2367E5E3}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="6" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,46 +466,61 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K14:P16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB41FF92-A6A7-48BC-B9E8-E7F14B869807}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="6" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,25 +530,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
